--- a/genshin/432874781510858129_2020-09-09_12-15-14.xlsx
+++ b/genshin/432874781510858129_2020-09-09_12-15-14.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-02-01 23:30:44</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44228.97967592593</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -610,10 +624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:47:56</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44177.11662037037</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -689,10 +701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-14 17:27:14</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44088.72724537037</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -760,10 +770,8 @@
           <t>3481717204</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-11 23:38:25</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44085.98501157408</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -827,10 +835,8 @@
           <t>3472359572</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-11 13:20:49</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44085.55612268519</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -898,10 +904,8 @@
           <t>3472376196</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-11 01:23:44</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44085.05814814815</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -977,10 +981,8 @@
           <t>3472359572</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-10 18:49:30</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44084.784375</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1052,10 +1054,8 @@
           <t>3472458135</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-10 13:08:33</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44084.54760416667</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
@@ -1123,10 +1123,8 @@
           <t>3472458135</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-10 13:07:10</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44084.54664351852</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1186,10 +1184,8 @@
           <t>3472359572</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-10 10:56:05</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44084.45561342593</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1257,10 +1253,8 @@
           <t>3472584262</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-10 10:51:15</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44084.45225694445</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1328,10 +1322,8 @@
           <t>3472458135</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-10 10:49:00</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44084.45069444444</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -1399,10 +1391,8 @@
           <t>3472358166</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-10 07:02:48</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44084.29361111111</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1462,10 +1452,8 @@
           <t>3472358166</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-10 02:45:02</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44084.11460648148</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1533,10 +1521,8 @@
           <t>3472511060</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-10 00:19:31</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44084.01355324074</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1612,10 +1598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-09 23:41:54</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44083.98743055556</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1691,10 +1675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-09 21:15:24</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44083.88569444444</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1758,10 +1740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-09 20:20:39</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44083.84767361111</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1829,10 +1809,8 @@
           <t>3472339026</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-09 19:24:13</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44083.8084837963</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1908,10 +1886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-09 19:03:45</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44083.79427083334</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1983,10 +1959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-09 18:33:27</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44083.77322916667</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2046,10 +2020,8 @@
           <t>3472376196</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:44:30</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44083.73923611111</v>
       </c>
       <c r="I23" t="n">
         <v>3</v>
@@ -2121,10 +2093,8 @@
           <t>3473161048</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:35:47</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44083.73318287037</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2188,10 +2158,8 @@
           <t>3472511060</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:28:59</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44083.72846064815</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2259,10 +2227,8 @@
           <t>3473089629</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-09 17:14:24</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44083.71833333333</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2326,10 +2292,8 @@
           <t>3472376196</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:54:59</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44083.70484953704</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2405,10 +2369,8 @@
           <t>3472957318</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:20:57</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44083.68121527778</v>
       </c>
       <c r="I28" t="n">
         <v>7</v>
@@ -2484,10 +2446,8 @@
           <t>3472359572</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:10:35</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44083.6740162037</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2559,10 +2519,8 @@
           <t>3472339026</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-09 16:05:15</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44083.6703125</v>
       </c>
       <c r="I30" t="n">
         <v>2</v>
@@ -2630,10 +2588,8 @@
           <t>3472511060</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:57:44</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44083.66509259259</v>
       </c>
       <c r="I31" t="n">
         <v>3</v>
@@ -2701,10 +2657,8 @@
           <t>3472359572</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:57:21</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44083.66482638889</v>
       </c>
       <c r="I32" t="n">
         <v>2</v>
@@ -2772,10 +2726,8 @@
           <t>3472584262</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:56:59</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44083.66457175926</v>
       </c>
       <c r="I33" t="n">
         <v>2</v>
@@ -2844,10 +2796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:56:13</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44083.66403935185</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2911,10 +2861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:49:09</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44083.65913194444</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2986,10 +2934,8 @@
           <t>3472873349</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:45:24</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44083.65652777778</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3057,10 +3003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:43:53</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44083.65547453704</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3121,10 +3065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:40:29</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44083.65311342593</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3200,10 +3142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:32:58</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44083.64789351852</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3271,10 +3211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:17:11</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44083.63693287037</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3342,10 +3280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:08:00</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44083.63055555556</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3417,10 +3353,8 @@
           <t>3472787002</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:07:53</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44083.63047453704</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3493,10 +3427,8 @@
           <t>3472774398</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:04:22</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44083.62803240741</v>
       </c>
       <c r="I43" t="n">
         <v>2</v>
@@ -3560,10 +3492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-09 15:03:51</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44083.62767361111</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3639,10 +3569,8 @@
           <t>3472718871</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:49:00</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44083.61736111111</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3710,10 +3638,8 @@
           <t>3472371683</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:45:40</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44083.6150462963</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3777,10 +3703,8 @@
           <t>3472718871</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:38:08</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44083.60981481482</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3848,10 +3772,8 @@
           <t>3472721395</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:36:47</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44083.60887731481</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3919,10 +3841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:31:57</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44083.60552083333</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -3986,10 +3906,8 @@
           <t>3472339026</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:28:50</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44083.60335648148</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4057,10 +3975,8 @@
           <t>3472339026</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:28:17</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44083.60297453704</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4128,10 +4044,8 @@
           <t>3472339026</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:27:36</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44083.6025</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4199,10 +4113,8 @@
           <t>3472339026</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:26:45</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44083.60190972222</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4270,10 +4182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:13:53</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44083.59297453704</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4337,10 +4247,8 @@
           <t>3472666933</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:11:29</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44083.59130787037</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4404,10 +4312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:07:37</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44083.58862268519</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4479,10 +4385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:03:03</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44083.58545138889</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4554,10 +4458,8 @@
           <t>3472639205</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-09-09 14:01:46</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44083.58456018518</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4621,10 +4523,8 @@
           <t>3472358166</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:55:59</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44083.58054398148</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4684,10 +4584,8 @@
           <t>3472619469</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:55:37</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44083.58028935185</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4759,10 +4657,8 @@
           <t>3472609299</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:49:55</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44083.57633101852</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4826,10 +4722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:48:41</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44083.57547453704</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4897,10 +4791,8 @@
           <t>3472584262</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:42:02</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44083.57085648148</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -4968,10 +4860,8 @@
           <t>3472339026</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:39:49</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44083.56931712963</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5039,10 +4929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:34:49</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44083.56584490741</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5119,10 +5007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:31:12</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44083.56333333333</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5186,10 +5072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:28:24</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44083.56138888889</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5257,10 +5141,8 @@
           <t>3472458135</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:27:10</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44083.56053240741</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5320,10 +5202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:26:47</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44083.56026620371</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5399,10 +5279,8 @@
           <t>3472365235</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:19:25</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44083.55515046296</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5470,10 +5348,8 @@
           <t>3472519490</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:17:34</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44083.55386574074</v>
       </c>
       <c r="I71" t="n">
         <v>2</v>
@@ -5543,10 +5419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:15:10</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44083.55219907407</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5622,10 +5496,8 @@
           <t>3472511884</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:13:37</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44083.55112268519</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5697,10 +5569,8 @@
           <t>3472511060</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:12:51</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44083.55059027778</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5776,10 +5646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:09:55</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44083.54855324074</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5843,10 +5711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:08:24</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44083.5475</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5910,10 +5776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:08:23</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44083.54748842592</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -5985,10 +5849,8 @@
           <t>3472335665</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:08:15</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44083.54739583333</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6060,10 +5922,8 @@
           <t>3472436909</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:07:26</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44083.5468287037</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6131,10 +5991,8 @@
           <t>3472458135</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:07:17</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44083.54672453704</v>
       </c>
       <c r="I80" t="n">
         <v>3</v>
@@ -6202,10 +6060,8 @@
           <t>3472343483</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:07:05</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44083.54658564815</v>
       </c>
       <c r="I81" t="n">
         <v>5</v>
@@ -6273,10 +6129,8 @@
           <t>3472436909</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:06:47</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44083.54637731481</v>
       </c>
       <c r="I82" t="n">
         <v>3</v>
@@ -6344,10 +6198,8 @@
           <t>3472319237</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:06:18</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44083.54604166667</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6419,10 +6271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:05:05</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44083.54519675926</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6486,10 +6336,8 @@
           <t>3472319237</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:04:17</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44083.54464120371</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6565,10 +6413,8 @@
           <t>3472481445</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:03:55</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44083.54438657407</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6637,10 +6483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:02:07</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44083.54313657407</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6708,10 +6552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:02:03</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44083.54309027778</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6775,10 +6617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:02:03</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44083.54309027778</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6846,10 +6686,8 @@
           <t>3472319237</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-09-09 13:00:57</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44083.54232638889</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6921,10 +6759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:57:34</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44083.53997685185</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -6988,10 +6824,8 @@
           <t>3472458135</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:57:20</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44083.53981481482</v>
       </c>
       <c r="I92" t="n">
         <v>5</v>
@@ -7059,10 +6893,8 @@
           <t>3472365235</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:55:01</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44083.53820601852</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7138,10 +6970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:52:19</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44083.53633101852</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7217,10 +7047,8 @@
           <t>3472438324</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:52:19</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44083.53633101852</v>
       </c>
       <c r="I95" t="n">
         <v>2</v>
@@ -7284,10 +7112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:51:55</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44083.53605324074</v>
       </c>
       <c r="I96" t="n">
         <v>2</v>
@@ -7366,10 +7192,8 @@
           <t>3472436909</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:51:05</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44083.53547453704</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7437,10 +7261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:50:27</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44083.53503472222</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7504,10 +7326,8 @@
           <t>3472365235</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:49:50</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44083.53460648148</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7571,10 +7391,8 @@
           <t>3472335665</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:48:16</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44083.53351851852</v>
       </c>
       <c r="I100" t="n">
         <v>16</v>
@@ -7638,10 +7456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:47:59</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44083.53332175926</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7714,10 +7530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:46:30</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44083.53229166667</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -7781,10 +7595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:45:41</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44083.53172453704</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7856,10 +7668,8 @@
           <t>3472420361</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:45:36</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44083.53166666667</v>
       </c>
       <c r="I104" t="n">
         <v>6</v>
@@ -7927,10 +7737,8 @@
           <t>3472371683</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:42:56</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44083.52981481481</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8006,10 +7814,8 @@
           <t>3472401743</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:42:27</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44083.52947916667</v>
       </c>
       <c r="I106" t="n">
         <v>22</v>
@@ -8077,10 +7883,8 @@
           <t>3472400581</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:41:31</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44083.52883101852</v>
       </c>
       <c r="I107" t="n">
         <v>16</v>
@@ -8156,10 +7960,8 @@
           <t>3472365235</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:41:10</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44083.52858796297</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8235,10 +8037,8 @@
           <t>3472365235</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:39:40</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44083.5275462963</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8314,10 +8114,8 @@
           <t>3472365235</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:38:49</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44083.52695601852</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8393,10 +8191,8 @@
           <t>3472391070</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:37:55</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44083.52633101852</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8472,10 +8268,8 @@
           <t>3472365235</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:37:23</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44083.52596064815</v>
       </c>
       <c r="I112" t="n">
         <v>4</v>
@@ -8539,10 +8333,8 @@
           <t>3472365235</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:37:08</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44083.52578703704</v>
       </c>
       <c r="I113" t="n">
         <v>6</v>
@@ -8610,10 +8402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:37:03</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44083.52572916666</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8681,10 +8471,8 @@
           <t>3472385051</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:36:59</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44083.52568287037</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8760,10 +8548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:36:41</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44083.52547453704</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8835,10 +8621,8 @@
           <t>3472339026</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:34:46</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44083.52414351852</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -8916,10 +8700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:34:15</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44083.52378472222</v>
       </c>
       <c r="I118" t="n">
         <v>2</v>
@@ -8992,10 +8774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:34:15</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44083.52378472222</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9063,10 +8843,8 @@
           <t>3472371683</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:34:13</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44083.52376157408</v>
       </c>
       <c r="I120" t="n">
         <v>2</v>
@@ -9138,10 +8916,8 @@
           <t>3472376196</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:33:51</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44083.52350694445</v>
       </c>
       <c r="I121" t="n">
         <v>2</v>
@@ -9217,10 +8993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:33:31</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44083.52327546296</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9292,10 +9066,8 @@
           <t>3472380158</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:33:21</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44083.52315972222</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9367,10 +9139,8 @@
           <t>3472358166</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:33:15</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44083.52309027778</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9438,10 +9208,8 @@
           <t>3472369744</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:33:00</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44083.52291666667</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9513,10 +9281,8 @@
           <t>3472370147</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:32:53</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44083.52283564815</v>
       </c>
       <c r="I126" t="n">
         <v>49</v>
@@ -9592,10 +9358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:32:51</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44083.5228125</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9671,10 +9435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:32:47</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44083.52276620371</v>
       </c>
       <c r="I128" t="n">
         <v>3</v>
@@ -9750,10 +9512,8 @@
           <t>3472359572</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:32:24</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44083.5225</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9825,10 +9585,8 @@
           <t>3472339026</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:32:00</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44083.52222222222</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -9896,10 +9654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:31:44</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44083.52203703704</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -9975,10 +9731,8 @@
           <t>3472358166</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:31:12</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44083.52166666667</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10050,10 +9804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:30:41</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44083.52130787037</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10125,10 +9877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:30:28</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44083.52115740741</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10204,10 +9954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:29:49</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44083.52070601852</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10271,10 +10019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:29:16</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44083.52032407407</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10346,10 +10092,8 @@
           <t>3472365235</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:29:04</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44083.52018518518</v>
       </c>
       <c r="I137" t="n">
         <v>38</v>
@@ -10425,10 +10169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:28:46</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44083.51997685185</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10504,10 +10246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:28:09</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44083.51954861111</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10579,10 +10319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:27:56</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44083.51939814815</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10654,10 +10392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:27:35</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44083.5191550926</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10733,10 +10469,8 @@
           <t>3472343483</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:27:18</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44083.51895833333</v>
       </c>
       <c r="I142" t="n">
         <v>69</v>
@@ -10804,10 +10538,8 @@
           <t>3472347818</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:26:55</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44083.51869212963</v>
       </c>
       <c r="I143" t="n">
         <v>75</v>
@@ -10875,10 +10607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:26:50</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44083.51863425926</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10954,10 +10684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:26:45</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44083.51857638889</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11029,10 +10757,8 @@
           <t>3472352479</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:26:41</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44083.5185300926</v>
       </c>
       <c r="I146" t="n">
         <v>14</v>
@@ -11096,10 +10822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:26:14</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44083.51821759259</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11167,10 +10891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:26:02</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44083.5180787037</v>
       </c>
       <c r="I148" t="n">
         <v>50</v>
@@ -11234,10 +10956,8 @@
           <t>3472346687</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:25:58</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44083.51803240741</v>
       </c>
       <c r="I149" t="n">
         <v>4</v>
@@ -11305,10 +11025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:25:47</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44083.51790509259</v>
       </c>
       <c r="I150" t="n">
         <v>45</v>
@@ -11384,10 +11102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:25:36</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44083.51777777778</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11455,10 +11171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:25:27</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44083.51767361111</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11530,10 +11244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:25:23</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44083.51762731482</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -11597,10 +11309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:25:18</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44083.51756944445</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11672,10 +11382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:25:04</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44083.51740740741</v>
       </c>
       <c r="I155" t="n">
         <v>12</v>
@@ -11751,10 +11459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:24:45</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44083.5171875</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11830,10 +11536,8 @@
           <t>3472339464</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:24:05</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44083.51672453704</v>
       </c>
       <c r="I157" t="n">
         <v>24</v>
@@ -11909,10 +11613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:24:04</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44083.51671296296</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -11984,10 +11686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:23:49</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44083.51653935185</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12063,10 +11763,8 @@
           <t>3472339026</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:23:44</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44083.51648148148</v>
       </c>
       <c r="I160" t="n">
         <v>17</v>
@@ -12138,10 +11836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:23:40</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44083.51643518519</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -12217,10 +11913,8 @@
           <t>3472338730</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:23:30</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44083.51631944445</v>
       </c>
       <c r="I162" t="n">
         <v>6</v>
@@ -12296,10 +11990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:22:58</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44083.51594907408</v>
       </c>
       <c r="I163" t="n">
         <v>5</v>
@@ -12375,10 +12067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:22:43</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44083.51577546296</v>
       </c>
       <c r="I164" t="n">
         <v>2</v>
@@ -12442,10 +12132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:22:37</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44083.51570601852</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12521,10 +12209,8 @@
           <t>3472332779</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:22:37</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44083.51570601852</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12600,10 +12286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:22:31</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44083.51563657408</v>
       </c>
       <c r="I167" t="n">
         <v>73</v>
@@ -12671,10 +12355,8 @@
           <t>3472327712</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:22:28</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44083.51560185185</v>
       </c>
       <c r="I168" t="n">
         <v>5</v>
@@ -12738,10 +12420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:22:02</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44083.51530092592</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12813,10 +12493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:22:00</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44083.51527777778</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12892,10 +12570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:21:51</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44083.51517361111</v>
       </c>
       <c r="I171" t="n">
         <v>157</v>
@@ -12963,10 +12639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:21:43</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44083.51508101852</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -13038,10 +12712,8 @@
           <t>3472336607</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:21:42</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44083.51506944445</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13109,10 +12781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:21:40</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44083.5150462963</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -13180,10 +12850,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:21:38</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44083.51502314815</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13251,10 +12919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:21:29</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44083.51491898148</v>
       </c>
       <c r="I176" t="n">
         <v>2</v>
@@ -13322,10 +12988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:21:22</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44083.51483796296</v>
       </c>
       <c r="I177" t="n">
         <v>101</v>
@@ -13389,10 +13053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:21:20</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44083.51481481481</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13456,10 +13118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:21:18</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44083.51479166667</v>
       </c>
       <c r="I179" t="n">
         <v>1</v>
@@ -13535,10 +13195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:21:04</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44083.51462962963</v>
       </c>
       <c r="I180" t="n">
         <v>262</v>
@@ -13610,10 +13268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:20:59</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44083.51457175926</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13681,10 +13337,8 @@
           <t>3472335777</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:20:59</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44083.51457175926</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13748,10 +13402,8 @@
           <t>3472335665</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:20:53</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44083.51450231481</v>
       </c>
       <c r="I183" t="n">
         <v>136</v>
@@ -13823,10 +13475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:20:49</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44083.51445601852</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13898,10 +13548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:20:41</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44083.51436342593</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -13977,10 +13625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:20:37</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44083.51431712963</v>
       </c>
       <c r="I186" t="n">
         <v>9</v>
@@ -14046,10 +13692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:20:29</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44083.51422453704</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14117,10 +13761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:20:28</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44083.51421296296</v>
       </c>
       <c r="I188" t="n">
         <v>2</v>
@@ -14196,10 +13838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:20:22</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44083.51414351852</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -14267,10 +13907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:20:13</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44083.51403935185</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14342,10 +13980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:20:12</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44083.51402777778</v>
       </c>
       <c r="I191" t="n">
         <v>22</v>
@@ -14421,10 +14057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:20:09</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44083.51399305555</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14492,10 +14126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:20:04</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44083.51393518518</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14559,10 +14191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:51</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44083.51378472222</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14630,10 +14260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:48</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44083.51375</v>
       </c>
       <c r="I195" t="n">
         <v>1</v>
@@ -14705,10 +14333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:47</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44083.51373842593</v>
       </c>
       <c r="I196" t="n">
         <v>463</v>
@@ -14780,10 +14406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:47</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44083.51373842593</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14843,10 +14467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:44</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44083.51370370371</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -14918,10 +14540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:44</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44083.51370370371</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14985,10 +14605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:40</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44083.51365740741</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15064,10 +14682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:39</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44083.51364583334</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15131,10 +14747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:32</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44083.51356481481</v>
       </c>
       <c r="I202" t="n">
         <v>2</v>
@@ -15202,10 +14816,8 @@
           <t>3472319237</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:30</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44083.51354166667</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15281,10 +14893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:26</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44083.51349537037</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15348,10 +14958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:25</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44083.5134837963</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15415,10 +15023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:22</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44083.51344907407</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15486,10 +15092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:22</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44083.51344907407</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15553,10 +15157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:22</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44083.51344907407</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15632,10 +15234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:19</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44083.51341435185</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15699,10 +15299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:13</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44083.51334490741</v>
       </c>
       <c r="I210" t="n">
         <v>2</v>
@@ -15770,10 +15368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:12</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44083.51333333334</v>
       </c>
       <c r="I211" t="n">
         <v>653</v>
@@ -15845,10 +15441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:11</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44083.51332175926</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -15920,10 +15514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:19:09</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44083.51329861111</v>
       </c>
       <c r="I213" t="n">
         <v>2</v>
@@ -15999,10 +15591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:18:56</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44083.51314814815</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16070,10 +15660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:18:55</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44083.51313657407</v>
       </c>
       <c r="I215" t="n">
         <v>1</v>
@@ -16141,10 +15729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-09-09 12:18:50</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44083.51307870371</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
